--- a/mapup_assignment/Python&Excel_Assesment.xlsx
+++ b/mapup_assignment/Python&Excel_Assesment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumar\OneDrive\Programm\Project\mapup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumar\OneDrive\Programm\Project\mapup_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{BDD8148F-10AF-41BA-BA65-07EE6A99F254}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{06779752-CC05-4CAC-98D4-2975B2D93CA0}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{BDD8148F-10AF-41BA-BA65-07EE6A99F254}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{45521C9D-07BF-413C-8E74-90E9ABF9CBA8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" xr2:uid="{9D847449-85A2-4E78-AAEB-C9F8ACADB9AD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" activeTab="1" xr2:uid="{9D847449-85A2-4E78-AAEB-C9F8ACADB9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -18,18 +18,17 @@
     <sheet name="Task_2_50" sheetId="3" r:id="rId3"/>
     <sheet name="Task_3_10" sheetId="5" r:id="rId4"/>
     <sheet name="Task_4_40" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="14" r:id="rId6"/>
-    <sheet name="DataSet2" sheetId="10" r:id="rId7"/>
-    <sheet name="Task_5_100" sheetId="8" r:id="rId8"/>
-    <sheet name="Optional" sheetId="11" r:id="rId9"/>
+    <sheet name="DataSet2" sheetId="10" r:id="rId6"/>
+    <sheet name="Task_5_100" sheetId="8" r:id="rId7"/>
+    <sheet name="Optional" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataSet!$A$1:$BZ$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">DataSet2!$A$1:$BZ$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">DataSet2!$A$1:$BZ$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="220">
   <si>
     <t>name</t>
   </si>
@@ -728,9 +727,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="[$-14009]hh:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="[$-14009]hh:mm:ss;@"/>
+    <numFmt numFmtId="168" formatCode="[$-14009]h:mm:ss;@"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1122,7 +1122,7 @@
     <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1195,7 +1195,8 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="7" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1208,11 +1209,32 @@
     <cellStyle name="Neutral" xfId="7" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="7">
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="166" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="166" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <numFmt numFmtId="166" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1234,34 +1256,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="165" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="165" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <numFmt numFmtId="165" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3740,7 +3734,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2F85E30-EA27-42CE-B592-272FC614D4CC}" name="PivotTable6" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="-1" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="name">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2F85E30-EA27-42CE-B592-272FC614D4CC}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="-1" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="name">
   <location ref="A7:K19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="78">
     <pivotField axis="axisRow" showAll="0">
@@ -4264,9 +4258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722F6E57-090B-4C63-93B9-3BF7F14370AD}">
   <dimension ref="A1:CB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="AY1" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomLeft" sqref="A1:CB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5240,7 +5234,7 @@
       <c r="BU4" s="53">
         <v>-1</v>
       </c>
-      <c r="BV4" s="53">
+      <c r="BV4" s="59">
         <v>-1</v>
       </c>
       <c r="BW4" s="53">
@@ -10572,15 +10566,15 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F1:BZ26">
-    <cfRule type="containsBlanks" dxfId="3" priority="3">
+    <cfRule type="containsBlanks" dxfId="6" priority="3">
       <formula>LEN(TRIM(F1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CB26">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10593,14 +10587,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566F4F6D-4923-4D27-BA3C-12C3EB95B36F}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="98" customWidth="1"/>
+    <col min="2" max="2" width="101" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="16.44140625" customWidth="1"/>
   </cols>
@@ -10765,7 +10759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52669E10-20C8-4BD4-AB41-425D41F2AD96}">
   <dimension ref="A1:AP167"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="57" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="57" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I130" sqref="I130"/>
     </sheetView>
   </sheetViews>
@@ -21774,22 +21768,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F4:J8">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:AI46">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>COUNT($B13:B13)&gt;$AK13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132:AI133">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>COUNT($B132:I132)&gt;$AK97</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ97:AP97 AJ98:AJ125 AL98:AP125">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>COUNT($B132:AJ132)&gt;$AK97</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21803,7 +21797,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21954,7 +21948,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22521,104 +22515,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839D224B-9953-4091-B8D6-36532E4B60B7}">
-  <dimension ref="F8:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="8" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F10" t="s">
-        <v>175</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F11" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F13" t="s">
-        <v>199</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F14" t="s">
-        <v>174</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F15" t="s">
-        <v>200</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F16" t="s">
-        <v>172</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F17" t="s">
-        <v>177</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB71C533-9EFD-48DB-AC48-B708EC3854E6}">
   <dimension ref="A1:BZ54"/>
   <sheetViews>
@@ -28414,7 +28310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A13968-2AD3-B646-AFEA-CFB6D5C827B1}">
   <dimension ref="A1:J72"/>
   <sheetViews>
@@ -28786,12 +28682,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A56B28-08A4-452A-974D-F70788FC02CD}">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
